--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/AUDRateMultiCurves.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/AUDRateMultiCurves.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3D69D6-46BF-4FAA-86D6-674EB7F280B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="270" windowWidth="14955" windowHeight="12525" tabRatio="790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="26370" windowHeight="14820" tabRatio="790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="26" r:id="rId1"/>
@@ -34,8 +35,16 @@
     <definedName name="Markets">Config!$I$2:$I$4</definedName>
     <definedName name="RateIndex">Config!$D$2:$D$12</definedName>
   </definedNames>
-  <calcPr calcId="171027" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1627,6 +1636,42 @@
     <xf numFmtId="0" fontId="33" fillId="32" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1667,42 +1712,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2371,7 +2380,7 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2397,55 +2406,55 @@
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" customHeight="1" thickBot="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="93" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="O1" s="94"/>
-      <c r="P1" s="95"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="81"/>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" thickBot="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="81" t="str">
+      <c r="B2" s="93" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateCurve( B3:C11,E4:G30)</f>
         <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
-      <c r="C2" s="82"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="101" t="s">
+      <c r="F2" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="103" t="s">
+      <c r="G2" s="89" t="s">
         <v>142</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="83" t="str">
+      <c r="I2" s="95" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateRateBasisCurve(I3:J12,L4:L16,M4:M16)</f>
         <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-6M</v>
       </c>
-      <c r="J2" s="84"/>
+      <c r="J2" s="96"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="99" t="s">
+      <c r="L2" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="99" t="s">
+      <c r="M2" s="85" t="s">
         <v>73</v>
       </c>
       <c r="N2" s="2"/>
@@ -2467,9 +2476,9 @@
         <v>0</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="104"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="90"/>
       <c r="H3" s="1"/>
       <c r="I3" s="16" t="s">
         <v>15</v>
@@ -2478,8 +2487,8 @@
         <v>38</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
       <c r="N3" s="2"/>
       <c r="O3" s="36" t="str">
         <v>AUD-OIS-1M</v>
@@ -2496,7 +2505,7 @@
       </c>
       <c r="C4" s="31">
         <f ca="1">TODAY()</f>
-        <v>43152</v>
+        <v>43648</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="37" t="s">
@@ -2514,7 +2523,7 @@
       </c>
       <c r="J4" s="68">
         <f ca="1">BaseDate</f>
-        <v>43152</v>
+        <v>43648</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="24" t="s">
@@ -2540,7 +2549,7 @@
       </c>
       <c r="C5" s="32">
         <f ca="1">C4</f>
-        <v>43152</v>
+        <v>43648</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="38" t="s">
@@ -2558,7 +2567,7 @@
       </c>
       <c r="J5" s="69">
         <f ca="1">J4</f>
-        <v>43152</v>
+        <v>43648</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="36" t="s">
@@ -2873,11 +2882,11 @@
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="79" t="str">
+      <c r="B13" s="91" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateCurve(B14:C22, AUDCurves!E40:G50)</f>
         <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND-1D</v>
       </c>
-      <c r="C13" s="80"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="2"/>
       <c r="E13" s="38" t="s">
         <v>137</v>
@@ -2927,11 +2936,11 @@
         <v>0</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="85" t="str">
+      <c r="I14" s="97" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateRateBasisCurve(I15:J24,L18:L29,M18:M29)</f>
         <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-1M</v>
       </c>
-      <c r="J14" s="86"/>
+      <c r="J14" s="98"/>
       <c r="K14" s="1"/>
       <c r="L14" s="36" t="s">
         <v>47</v>
@@ -2956,7 +2965,7 @@
       </c>
       <c r="C15" s="31">
         <f ca="1">TODAY()</f>
-        <v>43152</v>
+        <v>43648</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="38" t="s">
@@ -2999,7 +3008,7 @@
       </c>
       <c r="C16" s="32">
         <f ca="1">C15</f>
-        <v>43152</v>
+        <v>43648</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="38" t="s">
@@ -3017,7 +3026,7 @@
       </c>
       <c r="J16" s="31">
         <f ca="1">BaseDate</f>
-        <v>43152</v>
+        <v>43648</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="40" t="s">
@@ -3060,7 +3069,7 @@
       </c>
       <c r="J17" s="32">
         <f ca="1">J16</f>
-        <v>43152</v>
+        <v>43648</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="2"/>
@@ -3406,11 +3415,11 @@
         <v>0</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="79" t="str">
+      <c r="I26" s="91" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateCurve( I27:J35,L31:M49)</f>
         <v>Market.QR_LIVE.DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
-      <c r="J26" s="80"/>
+      <c r="J26" s="92"/>
       <c r="K26" s="2"/>
       <c r="L26" s="25" t="s">
         <v>60</v>
@@ -3484,7 +3493,7 @@
       </c>
       <c r="J28" s="31">
         <f ca="1">BaseDate</f>
-        <v>43152</v>
+        <v>43648</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="25" t="s">
@@ -3524,7 +3533,7 @@
       </c>
       <c r="J29" s="32">
         <f ca="1">J28</f>
-        <v>43152</v>
+        <v>43648</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="26" t="s">
@@ -3577,16 +3586,16 @@
       <c r="A31" s="2"/>
       <c r="B31" s="31">
         <f ca="1">DATE(YEAR(C4),12,28)</f>
-        <v>43462</v>
+        <v>43827</v>
       </c>
       <c r="C31" s="73" t="str">
         <f t="shared" ref="C31:C38" ca="1" si="1">(B31-BaseDate)&amp;"D-3D"</f>
-        <v>310D-3D</v>
+        <v>179D-3D</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="37" t="str">
         <f t="shared" ref="E31:E38" ca="1" si="2">"AUD-SpreadFra-"&amp;C31</f>
-        <v>AUD-SpreadFra-310D-3D</v>
+        <v>AUD-SpreadFra-179D-3D</v>
       </c>
       <c r="F31" s="21">
         <v>1E-3</v>
@@ -3626,16 +3635,16 @@
       <c r="A32" s="2"/>
       <c r="B32" s="32">
         <f ca="1">B31+365</f>
-        <v>43827</v>
+        <v>44192</v>
       </c>
       <c r="C32" s="74" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>675D-3D</v>
+        <v>544D-3D</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="38" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AUD-SpreadFra-675D-3D</v>
+        <v>AUD-SpreadFra-544D-3D</v>
       </c>
       <c r="F32" s="4">
         <v>1E-3</v>
@@ -3675,16 +3684,16 @@
       <c r="A33" s="2"/>
       <c r="B33" s="32">
         <f ca="1">B32+365</f>
-        <v>44192</v>
+        <v>44557</v>
       </c>
       <c r="C33" s="74" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1040D-3D</v>
+        <v>909D-3D</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="38" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AUD-SpreadFra-1040D-3D</v>
+        <v>AUD-SpreadFra-909D-3D</v>
       </c>
       <c r="F33" s="4">
         <v>1E-3</v>
@@ -3713,11 +3722,11 @@
       </c>
       <c r="O33" s="36">
         <f ca="1"/>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P33" s="4">
         <f ca="1"/>
-        <v>3.85565957905687E-2</v>
+        <v>3.4686028958479921E-2</v>
       </c>
       <c r="Q33" s="2"/>
     </row>
@@ -3725,16 +3734,16 @@
       <c r="A34" s="2"/>
       <c r="B34" s="32">
         <f ca="1">B33+365</f>
-        <v>44557</v>
+        <v>44922</v>
       </c>
       <c r="C34" s="74" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1405D-3D</v>
+        <v>1274D-3D</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="38" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AUD-SpreadFra-1405D-3D</v>
+        <v>AUD-SpreadFra-1274D-3D</v>
       </c>
       <c r="F34" s="4">
         <v>1E-3</v>
@@ -3762,11 +3771,11 @@
       </c>
       <c r="O34" s="36">
         <f ca="1"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P34" s="4">
         <f ca="1"/>
-        <v>2.4225435889600355E-2</v>
+        <v>2.399005603078835E-2</v>
       </c>
       <c r="Q34" s="2"/>
     </row>
@@ -3774,16 +3783,16 @@
       <c r="A35" s="2"/>
       <c r="B35" s="32">
         <f t="shared" ref="B35:B38" ca="1" si="3">B34+365</f>
-        <v>44922</v>
+        <v>45287</v>
       </c>
       <c r="C35" s="74" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1770D-3D</v>
+        <v>1639D-3D</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="38" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AUD-SpreadFra-1770D-3D</v>
+        <v>AUD-SpreadFra-1639D-3D</v>
       </c>
       <c r="F35" s="4">
         <v>1E-3</v>
@@ -3811,11 +3820,11 @@
       </c>
       <c r="O35" s="36">
         <f ca="1"/>
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P35" s="4">
         <f ca="1"/>
-        <v>2.083309684484555E-2</v>
+        <v>2.0773687320153694E-2</v>
       </c>
       <c r="Q35" s="2"/>
     </row>
@@ -3823,16 +3832,16 @@
       <c r="A36" s="2"/>
       <c r="B36" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>45287</v>
+        <v>45652</v>
       </c>
       <c r="C36" s="74" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2135D-3D</v>
+        <v>2004D-3D</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="38" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AUD-SpreadFra-2135D-3D</v>
+        <v>AUD-SpreadFra-2004D-3D</v>
       </c>
       <c r="F36" s="4">
         <v>1E-3</v>
@@ -3856,11 +3865,11 @@
       </c>
       <c r="O36" s="36">
         <f ca="1"/>
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P36" s="4">
         <f ca="1"/>
-        <v>1.9676345869936197E-2</v>
+        <v>1.9671053179393234E-2</v>
       </c>
       <c r="Q36" s="2"/>
     </row>
@@ -3868,16 +3877,16 @@
       <c r="A37" s="2"/>
       <c r="B37" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>45652</v>
+        <v>46017</v>
       </c>
       <c r="C37" s="74" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2500D-3D</v>
+        <v>2369D-3D</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="38" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AUD-SpreadFra-2500D-3D</v>
+        <v>AUD-SpreadFra-2369D-3D</v>
       </c>
       <c r="F37" s="4">
         <v>1E-3</v>
@@ -3886,11 +3895,11 @@
         <v>0</v>
       </c>
       <c r="H37" s="2"/>
-      <c r="I37" s="79" t="str">
+      <c r="I37" s="91" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateCurve(I38:J47,E52:F62)</f>
-        <v>Market.EOD_Sydney.RateCurve.AUD-AUD-BBR-BBSW-3M</v>
-      </c>
-      <c r="J37" s="80"/>
+        <v>Market.EOD_Sydney.RateCurve.AUD-BBR-BBSW-3M</v>
+      </c>
+      <c r="J37" s="92"/>
       <c r="K37" s="2"/>
       <c r="L37" s="38" t="s">
         <v>123</v>
@@ -3904,11 +3913,11 @@
       </c>
       <c r="O37" s="36">
         <f ca="1"/>
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="P37" s="4">
         <f ca="1"/>
-        <v>2.0537773992009949E-2</v>
+        <v>2.0536373587554554E-2</v>
       </c>
       <c r="Q37" s="2"/>
     </row>
@@ -3916,16 +3925,16 @@
       <c r="A38" s="2"/>
       <c r="B38" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>46017</v>
+        <v>46382</v>
       </c>
       <c r="C38" s="75" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2865D-3D</v>
+        <v>2734D-3D</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AUD-SpreadFra-2865D-3D</v>
+        <v>AUD-SpreadFra-2734D-3D</v>
       </c>
       <c r="F38" s="22">
         <v>1E-3</v>
@@ -3953,11 +3962,11 @@
       </c>
       <c r="O38" s="36">
         <f ca="1"/>
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="P38" s="4">
         <f ca="1"/>
-        <v>2.1411144327251441E-2</v>
+        <v>2.1410508515670276E-2</v>
       </c>
       <c r="Q38" s="2"/>
     </row>
@@ -3975,7 +3984,7 @@
       </c>
       <c r="J39" s="31">
         <f ca="1">BaseDate</f>
-        <v>43152</v>
+        <v>43648</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="38" t="s">
@@ -3990,21 +3999,21 @@
       </c>
       <c r="O39" s="36">
         <f ca="1"/>
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="P39" s="4">
         <f ca="1"/>
-        <v>2.50278362373547E-2</v>
+        <v>2.5027694166954065E-2</v>
       </c>
       <c r="Q39" s="2"/>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2"/>
-      <c r="B40" s="87" t="str">
+      <c r="B40" s="99" t="str">
         <f ca="1">IRCurve1</f>
         <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND-1D</v>
       </c>
-      <c r="C40" s="88"/>
+      <c r="C40" s="100"/>
       <c r="D40" s="2"/>
       <c r="E40" s="24" t="s">
         <v>107</v>
@@ -4021,7 +4030,7 @@
       </c>
       <c r="J40" s="32">
         <f ca="1">J39</f>
-        <v>43152</v>
+        <v>43648</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="38" t="s">
@@ -4036,21 +4045,21 @@
       </c>
       <c r="O40" s="25">
         <f ca="1"/>
-        <v>3653</v>
+        <v>3654</v>
       </c>
       <c r="P40" s="4">
         <f ca="1"/>
-        <v>2.9127691404240933E-2</v>
+        <v>2.9127869852448907E-2</v>
       </c>
       <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2"/>
-      <c r="B41" s="89" t="str">
+      <c r="B41" s="101" t="str">
         <f ca="1">IRCurve2</f>
         <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
-      <c r="C41" s="90"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="2"/>
       <c r="E41" s="25" t="s">
         <v>108</v>
@@ -4086,17 +4095,17 @@
       </c>
       <c r="P41" s="4">
         <f ca="1"/>
-        <v>3.159900085274131E-2</v>
+        <v>3.1599461296359627E-2</v>
       </c>
       <c r="Q41" s="2"/>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2"/>
-      <c r="B42" s="89" t="str">
+      <c r="B42" s="101" t="str">
         <f ca="1">IRCurve3</f>
         <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-6M</v>
       </c>
-      <c r="C42" s="90"/>
+      <c r="C42" s="102"/>
       <c r="D42" s="2"/>
       <c r="E42" s="25" t="s">
         <v>109</v>
@@ -4127,21 +4136,21 @@
       </c>
       <c r="O42" s="36">
         <f ca="1"/>
-        <v>10960</v>
+        <v>10961</v>
       </c>
       <c r="P42" s="4">
         <f ca="1"/>
-        <v>3.6439353354823512E-2</v>
+        <v>3.6439605931206709E-2</v>
       </c>
       <c r="Q42" s="2"/>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2"/>
-      <c r="B43" s="89" t="str">
+      <c r="B43" s="101" t="str">
         <f ca="1">IRCurve4</f>
         <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-1M</v>
       </c>
-      <c r="C43" s="90"/>
+      <c r="C43" s="102"/>
       <c r="D43" s="2"/>
       <c r="E43" s="25" t="s">
         <v>110</v>
@@ -4182,11 +4191,11 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2"/>
-      <c r="B44" s="89" t="str">
+      <c r="B44" s="101" t="str">
         <f ca="1">IRCurve5</f>
         <v>Market.QR_LIVE.DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
-      <c r="C44" s="90"/>
+      <c r="C44" s="102"/>
       <c r="D44" s="2"/>
       <c r="E44" s="25" t="s">
         <v>111</v>
@@ -4227,11 +4236,11 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2"/>
-      <c r="B45" s="89" t="str">
+      <c r="B45" s="101" t="str">
         <f ca="1">IRCurve6</f>
-        <v>Market.EOD_Sydney.RateCurve.AUD-AUD-BBR-BBSW-3M</v>
-      </c>
-      <c r="C45" s="90"/>
+        <v>Market.EOD_Sydney.RateCurve.AUD-BBR-BBSW-3M</v>
+      </c>
+      <c r="C45" s="102"/>
       <c r="D45" s="2"/>
       <c r="E45" s="25" t="s">
         <v>112</v>
@@ -4247,8 +4256,8 @@
         <v>4</v>
       </c>
       <c r="J45" s="33" t="str">
-        <f>J47&amp;"-"&amp;J43&amp;"-"&amp;J44</f>
-        <v>AUD-AUD-BBR-BBSW-3M</v>
+        <f>J43&amp;"-"&amp;J44</f>
+        <v>AUD-BBR-BBSW-3M</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="38" t="s">
@@ -4273,11 +4282,11 @@
     </row>
     <row r="46" spans="1:17" ht="13.5" thickBot="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="91" t="str">
+      <c r="B46" s="103" t="str">
         <f ca="1">IRCurve7</f>
         <v>Market.Test.RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
-      <c r="C46" s="92"/>
+      <c r="C46" s="104"/>
       <c r="D46" s="2"/>
       <c r="E46" s="25" t="s">
         <v>113</v>
@@ -4411,11 +4420,11 @@
         <v>0</v>
       </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="79" t="str">
+      <c r="I49" s="91" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateCurve(I50:J60,L51:N77)</f>
         <v>Market.Test.RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
-      <c r="J49" s="80"/>
+      <c r="J49" s="92"/>
       <c r="K49" s="2"/>
       <c r="L49" s="39" t="s">
         <v>135</v>
@@ -4486,7 +4495,7 @@
       </c>
       <c r="J51" s="31">
         <f ca="1">TODAY()</f>
-        <v>43152</v>
+        <v>43648</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="37" t="str">
@@ -4530,7 +4539,7 @@
       </c>
       <c r="J52" s="32">
         <f ca="1">J51</f>
-        <v>43152</v>
+        <v>43648</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="38" t="str">
@@ -5742,13 +5751,6 @@
     <protectedRange sqref="J59" name="Range2_1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="21">
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B2:C2"/>
@@ -5763,6 +5765,13 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
   </mergeCells>
   <dataValidations count="11">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C17 J30 J53 J42" xr:uid="{00000000-0002-0000-0100-000000000000}">
